--- a/data/order1.2(1, 1).xlsx
+++ b/data/order1.2(1, 1).xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QQ下载文件\MathorCup大数据竞赛资料\代码\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA6E0F5-5718-4F0C-8787-811392D4836D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367B4938-E407-49C4-83A8-17821C748E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$51</definedName>
-  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -26,6 +23,12 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>createTime</t>
+  </si>
+  <si>
+    <t>serviceFirstTime</t>
+  </si>
+  <si>
+    <t>serviceLastTime</t>
   </si>
   <si>
     <t>serviceUnitTime</t>
@@ -62,14 +65,6 @@
   </si>
   <si>
     <t>id</t>
-  </si>
-  <si>
-    <t>serviceLastTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>serviceFirstTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -481,68 +476,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -574,13 +565,13 @@
         <v>-17.370999999999999</v>
       </c>
       <c r="J2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="2">
-        <v>99999999</v>
+        <v>17</v>
       </c>
       <c r="L2" s="2">
-        <v>99999999</v>
+        <v>1662784200</v>
       </c>
       <c r="M2" s="2">
         <v>0</v>
@@ -621,13 +612,13 @@
         <v>-16.361000000000001</v>
       </c>
       <c r="J3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="2">
-        <v>99999999</v>
+        <v>19</v>
       </c>
       <c r="L3" s="2">
-        <v>99999999</v>
+        <v>1662775200</v>
       </c>
       <c r="M3" s="2">
         <v>0</v>
@@ -639,7 +630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>11</v>
       </c>
@@ -671,10 +662,10 @@
         <v>1</v>
       </c>
       <c r="K4" s="2">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L4" s="2">
-        <v>1662769800</v>
+        <v>1662777000</v>
       </c>
       <c r="M4" s="2">
         <v>0</v>
@@ -686,7 +677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>15</v>
       </c>
@@ -718,7 +709,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L5" s="2">
         <v>1662769800</v>
@@ -733,7 +724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>17</v>
       </c>
@@ -762,13 +753,13 @@
         <v>-4.7279999999999998</v>
       </c>
       <c r="J6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="2">
-        <v>99999999</v>
+        <v>7</v>
       </c>
       <c r="L6" s="2">
-        <v>99999999</v>
+        <v>1662769800</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
@@ -809,13 +800,13 @@
         <v>-17.129000000000001</v>
       </c>
       <c r="J7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="2">
-        <v>99999999</v>
+        <v>6</v>
       </c>
       <c r="L7" s="2">
-        <v>99999999</v>
+        <v>1662784200</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
@@ -827,7 +818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>29</v>
       </c>
@@ -859,10 +850,10 @@
         <v>1</v>
       </c>
       <c r="K8" s="2">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L8" s="2">
-        <v>1662769800</v>
+        <v>1662780600</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
@@ -874,7 +865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>30</v>
       </c>
@@ -903,13 +894,13 @@
         <v>-23.28</v>
       </c>
       <c r="J9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="2">
-        <v>99999999</v>
+        <v>9</v>
       </c>
       <c r="L9" s="2">
-        <v>99999999</v>
+        <v>1662782400</v>
       </c>
       <c r="M9" s="2">
         <v>0</v>
@@ -950,13 +941,13 @@
         <v>-5.9870000000000001</v>
       </c>
       <c r="J10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="2">
-        <v>99999999</v>
+        <v>13</v>
       </c>
       <c r="L10" s="2">
-        <v>99999999</v>
+        <v>1662778800</v>
       </c>
       <c r="M10" s="2">
         <v>0</v>
@@ -997,13 +988,13 @@
         <v>-9.19</v>
       </c>
       <c r="J11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="2">
-        <v>99999999</v>
+        <v>15</v>
       </c>
       <c r="L11" s="2">
-        <v>99999999</v>
+        <v>1662780600</v>
       </c>
       <c r="M11" s="2">
         <v>0</v>
@@ -1015,7 +1006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>50</v>
       </c>
@@ -1062,7 +1053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>51</v>
       </c>
@@ -1138,13 +1129,13 @@
         <v>-13.554</v>
       </c>
       <c r="J14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="2">
-        <v>99999999</v>
+        <v>19</v>
       </c>
       <c r="L14" s="2">
-        <v>99999999</v>
+        <v>1662769800</v>
       </c>
       <c r="M14" s="2">
         <v>0</v>
@@ -1156,7 +1147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>59</v>
       </c>
@@ -1191,7 +1182,7 @@
         <v>17</v>
       </c>
       <c r="L15" s="2">
-        <v>1662769800</v>
+        <v>1662777000</v>
       </c>
       <c r="M15" s="2">
         <v>0</v>
@@ -1203,7 +1194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>61</v>
       </c>
@@ -1235,10 +1226,10 @@
         <v>1</v>
       </c>
       <c r="K16" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L16" s="2">
-        <v>1662771600</v>
+        <v>1662769800</v>
       </c>
       <c r="M16" s="2">
         <v>0</v>
@@ -1250,7 +1241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>66</v>
       </c>
@@ -1297,7 +1288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>67</v>
       </c>
@@ -1326,13 +1317,13 @@
         <v>-23.393999999999998</v>
       </c>
       <c r="J18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="2">
-        <v>99999999</v>
+        <v>9</v>
       </c>
       <c r="L18" s="2">
-        <v>99999999</v>
+        <v>1662775200</v>
       </c>
       <c r="M18" s="2">
         <v>0</v>
@@ -1344,7 +1335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>68</v>
       </c>
@@ -1373,13 +1364,13 @@
         <v>-1.214</v>
       </c>
       <c r="J19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="2">
-        <v>99999999</v>
+        <v>8</v>
       </c>
       <c r="L19" s="2">
-        <v>99999999</v>
+        <v>1662775200</v>
       </c>
       <c r="M19" s="2">
         <v>0</v>
@@ -1391,7 +1382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>69</v>
       </c>
@@ -1423,10 +1414,10 @@
         <v>1</v>
       </c>
       <c r="K20" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L20" s="2">
-        <v>1662771600</v>
+        <v>1662786000</v>
       </c>
       <c r="M20" s="2">
         <v>0</v>
@@ -1438,7 +1429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>70</v>
       </c>
@@ -1485,7 +1476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>75</v>
       </c>
@@ -1532,7 +1523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>77</v>
       </c>
@@ -1564,10 +1555,10 @@
         <v>1</v>
       </c>
       <c r="K23" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L23" s="2">
-        <v>1662771600</v>
+        <v>1662769800</v>
       </c>
       <c r="M23" s="2">
         <v>0</v>
@@ -1579,7 +1570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>81</v>
       </c>
@@ -1608,13 +1599,13 @@
         <v>-8.593</v>
       </c>
       <c r="J24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="2">
-        <v>99999999</v>
+        <v>18</v>
       </c>
       <c r="L24" s="2">
-        <v>99999999</v>
+        <v>1662769800</v>
       </c>
       <c r="M24" s="2">
         <v>0</v>
@@ -1626,7 +1617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>84</v>
       </c>
@@ -1655,13 +1646,13 @@
         <v>-4.7279999999999998</v>
       </c>
       <c r="J25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="2">
-        <v>99999999</v>
+        <v>1</v>
       </c>
       <c r="L25" s="2">
-        <v>99999999</v>
+        <v>1662775200</v>
       </c>
       <c r="M25" s="2">
         <v>0</v>
@@ -1673,7 +1664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>86</v>
       </c>
@@ -1702,13 +1693,13 @@
         <v>-4.7279999999999998</v>
       </c>
       <c r="J26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="2">
-        <v>99999999</v>
+        <v>3</v>
       </c>
       <c r="L26" s="2">
-        <v>99999999</v>
+        <v>1662775200</v>
       </c>
       <c r="M26" s="2">
         <v>0</v>
@@ -1720,7 +1711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>89</v>
       </c>
@@ -1749,13 +1740,13 @@
         <v>-3.8079999999999998</v>
       </c>
       <c r="J27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="2">
-        <v>99999999</v>
+        <v>14</v>
       </c>
       <c r="L27" s="2">
-        <v>99999999</v>
+        <v>1662769800</v>
       </c>
       <c r="M27" s="2">
         <v>0</v>
@@ -1767,7 +1758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>90</v>
       </c>
@@ -1796,13 +1787,13 @@
         <v>-7.4390000000000001</v>
       </c>
       <c r="J28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="2">
-        <v>99999999</v>
+        <v>18</v>
       </c>
       <c r="L28" s="2">
-        <v>99999999</v>
+        <v>1662782400</v>
       </c>
       <c r="M28" s="2">
         <v>0</v>
@@ -1843,13 +1834,13 @@
         <v>-18.074999999999999</v>
       </c>
       <c r="J29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="2">
-        <v>99999999</v>
+        <v>6</v>
       </c>
       <c r="L29" s="2">
-        <v>99999999</v>
+        <v>1662777000</v>
       </c>
       <c r="M29" s="2">
         <v>0</v>
@@ -1861,7 +1852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>97</v>
       </c>
@@ -1896,7 +1887,7 @@
         <v>19</v>
       </c>
       <c r="L30" s="2">
-        <v>1662769800</v>
+        <v>1662778800</v>
       </c>
       <c r="M30" s="2">
         <v>0</v>
@@ -1908,7 +1899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>99</v>
       </c>
@@ -1955,7 +1946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>107</v>
       </c>
@@ -1984,13 +1975,13 @@
         <v>-5.5380000000000003</v>
       </c>
       <c r="J32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="2">
-        <v>99999999</v>
+        <v>14</v>
       </c>
       <c r="L32" s="2">
-        <v>99999999</v>
+        <v>1662777000</v>
       </c>
       <c r="M32" s="2">
         <v>0</v>
@@ -2002,7 +1993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>110</v>
       </c>
@@ -2031,13 +2022,13 @@
         <v>-26.391999999999999</v>
       </c>
       <c r="J33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="2">
-        <v>99999999</v>
+        <v>16</v>
       </c>
       <c r="L33" s="2">
-        <v>99999999</v>
+        <v>1662769800</v>
       </c>
       <c r="M33" s="2">
         <v>0</v>
@@ -2049,7 +2040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>119</v>
       </c>
@@ -2096,7 +2087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>122</v>
       </c>
@@ -2125,13 +2116,13 @@
         <v>-36.155000000000001</v>
       </c>
       <c r="J35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="2">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="L35" s="2">
-        <v>99999999</v>
+        <v>1662769800</v>
       </c>
       <c r="M35" s="2">
         <v>0</v>
@@ -2143,7 +2134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>123</v>
       </c>
@@ -2175,10 +2166,10 @@
         <v>1</v>
       </c>
       <c r="K36" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L36" s="2">
-        <v>1662771600</v>
+        <v>1662777000</v>
       </c>
       <c r="M36" s="2">
         <v>0</v>
@@ -2190,7 +2181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>124</v>
       </c>
@@ -2219,13 +2210,13 @@
         <v>-21.245000000000001</v>
       </c>
       <c r="J37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="2">
-        <v>99999999</v>
+        <v>19</v>
       </c>
       <c r="L37" s="2">
-        <v>99999999</v>
+        <v>1662784200</v>
       </c>
       <c r="M37" s="2">
         <v>0</v>
@@ -2237,7 +2228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>130</v>
       </c>
@@ -2266,13 +2257,13 @@
         <v>-18.920000000000002</v>
       </c>
       <c r="J38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="2">
-        <v>99999999</v>
+        <v>17</v>
       </c>
       <c r="L38" s="2">
-        <v>99999999</v>
+        <v>1662769800</v>
       </c>
       <c r="M38" s="2">
         <v>0</v>
@@ -2284,7 +2275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>134</v>
       </c>
@@ -2313,13 +2304,13 @@
         <v>-22.256</v>
       </c>
       <c r="J39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="2">
-        <v>99999999</v>
+        <v>16</v>
       </c>
       <c r="L39" s="2">
-        <v>99999999</v>
+        <v>1662777000</v>
       </c>
       <c r="M39" s="2">
         <v>0</v>
@@ -2360,13 +2351,13 @@
         <v>-15.904999999999999</v>
       </c>
       <c r="J40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="2">
-        <v>99999999</v>
+        <v>2</v>
       </c>
       <c r="L40" s="2">
-        <v>99999999</v>
+        <v>1662780600</v>
       </c>
       <c r="M40" s="2">
         <v>0</v>
@@ -2378,7 +2369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>138</v>
       </c>
@@ -2425,7 +2416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>145</v>
       </c>
@@ -2454,13 +2445,13 @@
         <v>9.0299999999999994</v>
       </c>
       <c r="J42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="2">
-        <v>99999999</v>
+        <v>11</v>
       </c>
       <c r="L42" s="2">
-        <v>99999999</v>
+        <v>1662771600</v>
       </c>
       <c r="M42" s="2">
         <v>0</v>
@@ -2472,7 +2463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>146</v>
       </c>
@@ -2519,7 +2510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>147</v>
       </c>
@@ -2554,7 +2545,7 @@
         <v>10</v>
       </c>
       <c r="L44" s="2">
-        <v>1662769800</v>
+        <v>1662775200</v>
       </c>
       <c r="M44" s="2">
         <v>0</v>
@@ -2566,7 +2557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>150</v>
       </c>
@@ -2595,13 +2586,13 @@
         <v>-12.894</v>
       </c>
       <c r="J45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="2">
-        <v>99999999</v>
+        <v>7</v>
       </c>
       <c r="L45" s="2">
-        <v>99999999</v>
+        <v>1662780600</v>
       </c>
       <c r="M45" s="2">
         <v>0</v>
@@ -2613,7 +2604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>153</v>
       </c>
@@ -2642,13 +2633,13 @@
         <v>-3.0070000000000001</v>
       </c>
       <c r="J46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" s="2">
-        <v>99999999</v>
+        <v>2</v>
       </c>
       <c r="L46" s="2">
-        <v>99999999</v>
+        <v>1662769800</v>
       </c>
       <c r="M46" s="2">
         <v>0</v>
@@ -2660,7 +2651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>158</v>
       </c>
@@ -2689,13 +2680,13 @@
         <v>-39.468000000000004</v>
       </c>
       <c r="J47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" s="2">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="L47" s="2">
-        <v>99999999</v>
+        <v>1662777000</v>
       </c>
       <c r="M47" s="2">
         <v>0</v>
@@ -2707,7 +2698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>163</v>
       </c>
@@ -2754,7 +2745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>168</v>
       </c>
@@ -2783,13 +2774,13 @@
         <v>5.125</v>
       </c>
       <c r="J49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" s="2">
-        <v>99999999</v>
+        <v>12</v>
       </c>
       <c r="L49" s="2">
-        <v>99999999</v>
+        <v>1662780600</v>
       </c>
       <c r="M49" s="2">
         <v>0</v>
@@ -2801,7 +2792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>174</v>
       </c>
@@ -2830,13 +2821,13 @@
         <v>-2.3260000000000001</v>
       </c>
       <c r="J50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" s="2">
-        <v>99999999</v>
+        <v>4</v>
       </c>
       <c r="L50" s="2">
-        <v>99999999</v>
+        <v>1662777000</v>
       </c>
       <c r="M50" s="2">
         <v>0</v>
@@ -2848,7 +2839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>178</v>
       </c>
@@ -2880,10 +2871,10 @@
         <v>1</v>
       </c>
       <c r="K51" s="2">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="L51" s="2">
-        <v>1662769800</v>
+        <v>1662784200</v>
       </c>
       <c r="M51" s="2">
         <v>0</v>
@@ -2896,18 +2887,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O51" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/order1.2(1, 1).xlsx
+++ b/data/order1.2(1, 1).xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QQ下载文件\MathorCup大数据竞赛资料\代码\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367B4938-E407-49C4-83A8-17821C748E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F01D24-3F44-47CC-B691-8B57F8EFB7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$51</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>createTime</t>
   </si>
@@ -34,18 +37,6 @@
     <t>serviceUnitTime</t>
   </si>
   <si>
-    <t>x_od</t>
-  </si>
-  <si>
-    <t>y_od</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>assign_status</t>
   </si>
   <si>
@@ -53,15 +44,6 @@
   </si>
   <si>
     <t>serviceStartTime</t>
-  </si>
-  <si>
-    <t>district_x</t>
-  </si>
-  <si>
-    <t>district_y</t>
-  </si>
-  <si>
-    <t>available</t>
   </si>
   <si>
     <t>id</t>
@@ -476,22 +458,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O51"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="12.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -514,29 +502,8 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -553,37 +520,16 @@
         <v>1</v>
       </c>
       <c r="F2" s="2">
-        <v>2176</v>
+        <v>0</v>
       </c>
       <c r="G2" s="2">
-        <v>-17371</v>
+        <v>99999999</v>
       </c>
       <c r="H2" s="2">
-        <v>2.1760000000000002</v>
-      </c>
-      <c r="I2" s="2">
-        <v>-17.370999999999999</v>
-      </c>
-      <c r="J2" s="2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2">
-        <v>17</v>
-      </c>
-      <c r="L2" s="2">
-        <v>1662784200</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0</v>
-      </c>
-      <c r="N2" s="2">
-        <v>0</v>
-      </c>
-      <c r="O2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>99999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>7</v>
       </c>
@@ -600,37 +546,16 @@
         <v>1</v>
       </c>
       <c r="F3" s="2">
-        <v>10846</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>-16361</v>
+        <v>99999999</v>
       </c>
       <c r="H3" s="2">
-        <v>10.846</v>
-      </c>
-      <c r="I3" s="2">
-        <v>-16.361000000000001</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2">
-        <v>19</v>
-      </c>
-      <c r="L3" s="2">
-        <v>1662775200</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2">
-        <v>0</v>
-      </c>
-      <c r="O3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>99999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>11</v>
       </c>
@@ -647,37 +572,16 @@
         <v>1</v>
       </c>
       <c r="F4" s="2">
-        <v>-18446</v>
+        <v>1</v>
       </c>
       <c r="G4" s="2">
-        <v>-7727</v>
+        <v>18</v>
       </c>
       <c r="H4" s="2">
-        <v>-18.446000000000002</v>
-      </c>
-      <c r="I4" s="2">
-        <v>-7.7270000000000003</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2">
-        <v>18</v>
-      </c>
-      <c r="L4" s="2">
-        <v>1662777000</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>15</v>
       </c>
@@ -694,37 +598,16 @@
         <v>1</v>
       </c>
       <c r="F5" s="2">
-        <v>-10756</v>
+        <v>1</v>
       </c>
       <c r="G5" s="2">
-        <v>-23997</v>
+        <v>10</v>
       </c>
       <c r="H5" s="2">
-        <v>-10.756</v>
-      </c>
-      <c r="I5" s="2">
-        <v>-23.997</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1</v>
-      </c>
-      <c r="K5" s="2">
-        <v>10</v>
-      </c>
-      <c r="L5" s="2">
-        <v>1662769800</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>17</v>
       </c>
@@ -741,37 +624,16 @@
         <v>2</v>
       </c>
       <c r="F6" s="2">
-        <v>572</v>
+        <v>1</v>
       </c>
       <c r="G6" s="2">
-        <v>-4728</v>
+        <v>7</v>
       </c>
       <c r="H6" s="2">
-        <v>0.57199999999999995</v>
-      </c>
-      <c r="I6" s="2">
-        <v>-4.7279999999999998</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1</v>
-      </c>
-      <c r="K6" s="2">
-        <v>7</v>
-      </c>
-      <c r="L6" s="2">
-        <v>1662769800</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0</v>
-      </c>
-      <c r="O6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>24</v>
       </c>
@@ -788,37 +650,16 @@
         <v>1</v>
       </c>
       <c r="F7" s="2">
-        <v>-416</v>
+        <v>0</v>
       </c>
       <c r="G7" s="2">
-        <v>-17129</v>
+        <v>99999999</v>
       </c>
       <c r="H7" s="2">
-        <v>-0.41599999999999998</v>
-      </c>
-      <c r="I7" s="2">
-        <v>-17.129000000000001</v>
-      </c>
-      <c r="J7" s="2">
-        <v>1</v>
-      </c>
-      <c r="K7" s="2">
-        <v>6</v>
-      </c>
-      <c r="L7" s="2">
-        <v>1662784200</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0</v>
-      </c>
-      <c r="O7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>99999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>29</v>
       </c>
@@ -835,37 +676,16 @@
         <v>1</v>
       </c>
       <c r="F8" s="2">
-        <v>-11254</v>
+        <v>1</v>
       </c>
       <c r="G8" s="2">
-        <v>-1572</v>
+        <v>8</v>
       </c>
       <c r="H8" s="2">
-        <v>-11.254</v>
-      </c>
-      <c r="I8" s="2">
-        <v>-1.5720000000000001</v>
-      </c>
-      <c r="J8" s="2">
-        <v>1</v>
-      </c>
-      <c r="K8" s="2">
-        <v>11</v>
-      </c>
-      <c r="L8" s="2">
-        <v>1662780600</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0</v>
-      </c>
-      <c r="N8" s="2">
-        <v>0</v>
-      </c>
-      <c r="O8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>30</v>
       </c>
@@ -882,37 +702,16 @@
         <v>1.5</v>
       </c>
       <c r="F9" s="2">
-        <v>-2351</v>
+        <v>0</v>
       </c>
       <c r="G9" s="2">
-        <v>-23280</v>
+        <v>99999999</v>
       </c>
       <c r="H9" s="2">
-        <v>-2.351</v>
-      </c>
-      <c r="I9" s="2">
-        <v>-23.28</v>
-      </c>
-      <c r="J9" s="2">
-        <v>1</v>
-      </c>
-      <c r="K9" s="2">
-        <v>9</v>
-      </c>
-      <c r="L9" s="2">
-        <v>1662782400</v>
-      </c>
-      <c r="M9" s="2">
-        <v>0</v>
-      </c>
-      <c r="N9" s="2">
-        <v>0</v>
-      </c>
-      <c r="O9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>99999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>35</v>
       </c>
@@ -929,37 +728,16 @@
         <v>1</v>
       </c>
       <c r="F10" s="2">
-        <v>19069</v>
+        <v>0</v>
       </c>
       <c r="G10" s="2">
-        <v>-5987</v>
+        <v>99999999</v>
       </c>
       <c r="H10" s="2">
-        <v>19.068999999999999</v>
-      </c>
-      <c r="I10" s="2">
-        <v>-5.9870000000000001</v>
-      </c>
-      <c r="J10" s="2">
-        <v>1</v>
-      </c>
-      <c r="K10" s="2">
-        <v>13</v>
-      </c>
-      <c r="L10" s="2">
-        <v>1662778800</v>
-      </c>
-      <c r="M10" s="2">
-        <v>0</v>
-      </c>
-      <c r="N10" s="2">
-        <v>0</v>
-      </c>
-      <c r="O10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>99999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>39</v>
       </c>
@@ -976,37 +754,16 @@
         <v>1</v>
       </c>
       <c r="F11" s="2">
-        <v>17836</v>
+        <v>0</v>
       </c>
       <c r="G11" s="2">
-        <v>-9190</v>
+        <v>99999999</v>
       </c>
       <c r="H11" s="2">
-        <v>17.835999999999999</v>
-      </c>
-      <c r="I11" s="2">
-        <v>-9.19</v>
-      </c>
-      <c r="J11" s="2">
-        <v>1</v>
-      </c>
-      <c r="K11" s="2">
-        <v>15</v>
-      </c>
-      <c r="L11" s="2">
-        <v>1662780600</v>
-      </c>
-      <c r="M11" s="2">
-        <v>0</v>
-      </c>
-      <c r="N11" s="2">
-        <v>0</v>
-      </c>
-      <c r="O11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>99999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>50</v>
       </c>
@@ -1023,37 +780,16 @@
         <v>2</v>
       </c>
       <c r="F12" s="2">
-        <v>-3081</v>
+        <v>0</v>
       </c>
       <c r="G12" s="2">
-        <v>-39329</v>
+        <v>99999999</v>
       </c>
       <c r="H12" s="2">
-        <v>-3.081</v>
-      </c>
-      <c r="I12" s="2">
-        <v>-39.329000000000001</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
-        <v>99999999</v>
-      </c>
-      <c r="L12" s="2">
-        <v>99999999</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0</v>
-      </c>
-      <c r="N12" s="2">
-        <v>0</v>
-      </c>
-      <c r="O12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>99999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>51</v>
       </c>
@@ -1070,37 +806,16 @@
         <v>2</v>
       </c>
       <c r="F13" s="2">
-        <v>-3081</v>
+        <v>0</v>
       </c>
       <c r="G13" s="2">
-        <v>-39329</v>
+        <v>99999999</v>
       </c>
       <c r="H13" s="2">
-        <v>-3.081</v>
-      </c>
-      <c r="I13" s="2">
-        <v>-39.329000000000001</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
-        <v>99999999</v>
-      </c>
-      <c r="L13" s="2">
-        <v>99999999</v>
-      </c>
-      <c r="M13" s="2">
-        <v>0</v>
-      </c>
-      <c r="N13" s="2">
-        <v>0</v>
-      </c>
-      <c r="O13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>99999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>58</v>
       </c>
@@ -1117,37 +832,16 @@
         <v>1</v>
       </c>
       <c r="F14" s="2">
-        <v>7063</v>
+        <v>1</v>
       </c>
       <c r="G14" s="2">
-        <v>-13554</v>
+        <v>19</v>
       </c>
       <c r="H14" s="2">
-        <v>7.0629999999999997</v>
-      </c>
-      <c r="I14" s="2">
-        <v>-13.554</v>
-      </c>
-      <c r="J14" s="2">
-        <v>1</v>
-      </c>
-      <c r="K14" s="2">
-        <v>19</v>
-      </c>
-      <c r="L14" s="2">
-        <v>1662769800</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0</v>
-      </c>
-      <c r="N14" s="2">
-        <v>0</v>
-      </c>
-      <c r="O14" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>59</v>
       </c>
@@ -1164,37 +858,16 @@
         <v>1.5</v>
       </c>
       <c r="F15" s="2">
-        <v>3396</v>
+        <v>1</v>
       </c>
       <c r="G15" s="2">
-        <v>-18350</v>
+        <v>3</v>
       </c>
       <c r="H15" s="2">
-        <v>3.3959999999999999</v>
-      </c>
-      <c r="I15" s="2">
-        <v>-18.350000000000001</v>
-      </c>
-      <c r="J15" s="2">
-        <v>1</v>
-      </c>
-      <c r="K15" s="2">
-        <v>17</v>
-      </c>
-      <c r="L15" s="2">
-        <v>1662777000</v>
-      </c>
-      <c r="M15" s="2">
-        <v>0</v>
-      </c>
-      <c r="N15" s="2">
-        <v>0</v>
-      </c>
-      <c r="O15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>61</v>
       </c>
@@ -1211,37 +884,16 @@
         <v>2</v>
       </c>
       <c r="F16" s="2">
-        <v>-7416</v>
+        <v>1</v>
       </c>
       <c r="G16" s="2">
-        <v>12140</v>
+        <v>12</v>
       </c>
       <c r="H16" s="2">
-        <v>-7.4160000000000004</v>
-      </c>
-      <c r="I16" s="2">
-        <v>12.14</v>
-      </c>
-      <c r="J16" s="2">
-        <v>1</v>
-      </c>
-      <c r="K16" s="2">
-        <v>12</v>
-      </c>
-      <c r="L16" s="2">
-        <v>1662769800</v>
-      </c>
-      <c r="M16" s="2">
-        <v>0</v>
-      </c>
-      <c r="N16" s="2">
-        <v>0</v>
-      </c>
-      <c r="O16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>66</v>
       </c>
@@ -1258,37 +910,16 @@
         <v>1.5</v>
       </c>
       <c r="F17" s="2">
-        <v>-556</v>
+        <v>1</v>
       </c>
       <c r="G17" s="2">
-        <v>-6415</v>
+        <v>5</v>
       </c>
       <c r="H17" s="2">
-        <v>-0.55600000000000005</v>
-      </c>
-      <c r="I17" s="2">
-        <v>-6.415</v>
-      </c>
-      <c r="J17" s="2">
-        <v>1</v>
-      </c>
-      <c r="K17" s="2">
-        <v>5</v>
-      </c>
-      <c r="L17" s="2">
-        <v>1662769800</v>
-      </c>
-      <c r="M17" s="2">
-        <v>0</v>
-      </c>
-      <c r="N17" s="2">
-        <v>0</v>
-      </c>
-      <c r="O17" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>67</v>
       </c>
@@ -1305,37 +936,16 @@
         <v>1.5</v>
       </c>
       <c r="F18" s="2">
-        <v>-5077</v>
+        <v>0</v>
       </c>
       <c r="G18" s="2">
-        <v>-23394</v>
+        <v>99999999</v>
       </c>
       <c r="H18" s="2">
-        <v>-5.077</v>
-      </c>
-      <c r="I18" s="2">
-        <v>-23.393999999999998</v>
-      </c>
-      <c r="J18" s="2">
-        <v>1</v>
-      </c>
-      <c r="K18" s="2">
-        <v>9</v>
-      </c>
-      <c r="L18" s="2">
-        <v>1662775200</v>
-      </c>
-      <c r="M18" s="2">
-        <v>0</v>
-      </c>
-      <c r="N18" s="2">
-        <v>0</v>
-      </c>
-      <c r="O18" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+        <v>99999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>68</v>
       </c>
@@ -1352,37 +962,16 @@
         <v>2</v>
       </c>
       <c r="F19" s="2">
-        <v>-2681</v>
+        <v>0</v>
       </c>
       <c r="G19" s="2">
-        <v>-1214</v>
+        <v>99999999</v>
       </c>
       <c r="H19" s="2">
-        <v>-2.681</v>
-      </c>
-      <c r="I19" s="2">
-        <v>-1.214</v>
-      </c>
-      <c r="J19" s="2">
-        <v>1</v>
-      </c>
-      <c r="K19" s="2">
-        <v>8</v>
-      </c>
-      <c r="L19" s="2">
-        <v>1662775200</v>
-      </c>
-      <c r="M19" s="2">
-        <v>0</v>
-      </c>
-      <c r="N19" s="2">
-        <v>0</v>
-      </c>
-      <c r="O19" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+        <v>99999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>69</v>
       </c>
@@ -1399,37 +988,16 @@
         <v>2</v>
       </c>
       <c r="F20" s="2">
-        <v>-19046</v>
+        <v>1</v>
       </c>
       <c r="G20" s="2">
-        <v>4798</v>
+        <v>14</v>
       </c>
       <c r="H20" s="2">
-        <v>-19.045999999999999</v>
-      </c>
-      <c r="I20" s="2">
-        <v>4.798</v>
-      </c>
-      <c r="J20" s="2">
-        <v>1</v>
-      </c>
-      <c r="K20" s="2">
-        <v>14</v>
-      </c>
-      <c r="L20" s="2">
-        <v>1662786000</v>
-      </c>
-      <c r="M20" s="2">
-        <v>0</v>
-      </c>
-      <c r="N20" s="2">
-        <v>0</v>
-      </c>
-      <c r="O20" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>70</v>
       </c>
@@ -1446,37 +1014,16 @@
         <v>1</v>
       </c>
       <c r="F21" s="2">
-        <v>-1226</v>
+        <v>1</v>
       </c>
       <c r="G21" s="2">
-        <v>-1453</v>
+        <v>8</v>
       </c>
       <c r="H21" s="2">
-        <v>-1.226</v>
-      </c>
-      <c r="I21" s="2">
-        <v>-1.4530000000000001</v>
-      </c>
-      <c r="J21" s="2">
-        <v>1</v>
-      </c>
-      <c r="K21" s="2">
-        <v>8</v>
-      </c>
-      <c r="L21" s="2">
-        <v>1662769800</v>
-      </c>
-      <c r="M21" s="2">
-        <v>0</v>
-      </c>
-      <c r="N21" s="2">
-        <v>0</v>
-      </c>
-      <c r="O21" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>75</v>
       </c>
@@ -1493,37 +1040,16 @@
         <v>1.5</v>
       </c>
       <c r="F22" s="2">
-        <v>-2827</v>
+        <v>1</v>
       </c>
       <c r="G22" s="2">
-        <v>-879</v>
+        <v>4</v>
       </c>
       <c r="H22" s="2">
-        <v>-2.827</v>
-      </c>
-      <c r="I22" s="2">
-        <v>-0.879</v>
-      </c>
-      <c r="J22" s="2">
-        <v>1</v>
-      </c>
-      <c r="K22" s="2">
-        <v>4</v>
-      </c>
-      <c r="L22" s="2">
-        <v>1662769800</v>
-      </c>
-      <c r="M22" s="2">
-        <v>0</v>
-      </c>
-      <c r="N22" s="2">
-        <v>0</v>
-      </c>
-      <c r="O22" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>77</v>
       </c>
@@ -1540,37 +1066,16 @@
         <v>1</v>
       </c>
       <c r="F23" s="2">
-        <v>-8990</v>
+        <v>1</v>
       </c>
       <c r="G23" s="2">
-        <v>-27565</v>
+        <v>9</v>
       </c>
       <c r="H23" s="2">
-        <v>-8.99</v>
-      </c>
-      <c r="I23" s="2">
-        <v>-27.565000000000001</v>
-      </c>
-      <c r="J23" s="2">
-        <v>1</v>
-      </c>
-      <c r="K23" s="2">
-        <v>9</v>
-      </c>
-      <c r="L23" s="2">
-        <v>1662769800</v>
-      </c>
-      <c r="M23" s="2">
-        <v>0</v>
-      </c>
-      <c r="N23" s="2">
-        <v>0</v>
-      </c>
-      <c r="O23" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>81</v>
       </c>
@@ -1587,37 +1092,16 @@
         <v>1.5</v>
       </c>
       <c r="F24" s="2">
-        <v>-13526</v>
+        <v>1</v>
       </c>
       <c r="G24" s="2">
-        <v>-8593</v>
+        <v>18</v>
       </c>
       <c r="H24" s="2">
-        <v>-13.526</v>
-      </c>
-      <c r="I24" s="2">
-        <v>-8.593</v>
-      </c>
-      <c r="J24" s="2">
-        <v>1</v>
-      </c>
-      <c r="K24" s="2">
-        <v>18</v>
-      </c>
-      <c r="L24" s="2">
-        <v>1662769800</v>
-      </c>
-      <c r="M24" s="2">
-        <v>0</v>
-      </c>
-      <c r="N24" s="2">
-        <v>0</v>
-      </c>
-      <c r="O24" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>84</v>
       </c>
@@ -1634,37 +1118,16 @@
         <v>2</v>
       </c>
       <c r="F25" s="2">
-        <v>572</v>
+        <v>0</v>
       </c>
       <c r="G25" s="2">
-        <v>-4728</v>
+        <v>99999999</v>
       </c>
       <c r="H25" s="2">
-        <v>0.57199999999999995</v>
-      </c>
-      <c r="I25" s="2">
-        <v>-4.7279999999999998</v>
-      </c>
-      <c r="J25" s="2">
-        <v>1</v>
-      </c>
-      <c r="K25" s="2">
-        <v>1</v>
-      </c>
-      <c r="L25" s="2">
-        <v>1662775200</v>
-      </c>
-      <c r="M25" s="2">
-        <v>0</v>
-      </c>
-      <c r="N25" s="2">
-        <v>0</v>
-      </c>
-      <c r="O25" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+        <v>99999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>86</v>
       </c>
@@ -1681,37 +1144,16 @@
         <v>2</v>
       </c>
       <c r="F26" s="2">
-        <v>572</v>
+        <v>0</v>
       </c>
       <c r="G26" s="2">
-        <v>-4728</v>
+        <v>99999999</v>
       </c>
       <c r="H26" s="2">
-        <v>0.57199999999999995</v>
-      </c>
-      <c r="I26" s="2">
-        <v>-4.7279999999999998</v>
-      </c>
-      <c r="J26" s="2">
-        <v>1</v>
-      </c>
-      <c r="K26" s="2">
-        <v>3</v>
-      </c>
-      <c r="L26" s="2">
-        <v>1662775200</v>
-      </c>
-      <c r="M26" s="2">
-        <v>0</v>
-      </c>
-      <c r="N26" s="2">
-        <v>0</v>
-      </c>
-      <c r="O26" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+        <v>99999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>89</v>
       </c>
@@ -1728,37 +1170,16 @@
         <v>1.5</v>
       </c>
       <c r="F27" s="2">
-        <v>-15640</v>
+        <v>1</v>
       </c>
       <c r="G27" s="2">
-        <v>-3808</v>
+        <v>14</v>
       </c>
       <c r="H27" s="2">
-        <v>-15.64</v>
-      </c>
-      <c r="I27" s="2">
-        <v>-3.8079999999999998</v>
-      </c>
-      <c r="J27" s="2">
-        <v>1</v>
-      </c>
-      <c r="K27" s="2">
-        <v>14</v>
-      </c>
-      <c r="L27" s="2">
-        <v>1662769800</v>
-      </c>
-      <c r="M27" s="2">
-        <v>0</v>
-      </c>
-      <c r="N27" s="2">
-        <v>0</v>
-      </c>
-      <c r="O27" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>90</v>
       </c>
@@ -1775,37 +1196,16 @@
         <v>2</v>
       </c>
       <c r="F28" s="2">
-        <v>-19883</v>
+        <v>0</v>
       </c>
       <c r="G28" s="2">
-        <v>-7439</v>
+        <v>99999999</v>
       </c>
       <c r="H28" s="2">
-        <v>-19.882999999999999</v>
-      </c>
-      <c r="I28" s="2">
-        <v>-7.4390000000000001</v>
-      </c>
-      <c r="J28" s="2">
-        <v>1</v>
-      </c>
-      <c r="K28" s="2">
-        <v>18</v>
-      </c>
-      <c r="L28" s="2">
-        <v>1662782400</v>
-      </c>
-      <c r="M28" s="2">
-        <v>0</v>
-      </c>
-      <c r="N28" s="2">
-        <v>0</v>
-      </c>
-      <c r="O28" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+        <v>99999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>93</v>
       </c>
@@ -1822,37 +1222,16 @@
         <v>1</v>
       </c>
       <c r="F29" s="2">
-        <v>-11865</v>
+        <v>0</v>
       </c>
       <c r="G29" s="2">
-        <v>-18075</v>
+        <v>99999999</v>
       </c>
       <c r="H29" s="2">
-        <v>-11.865</v>
-      </c>
-      <c r="I29" s="2">
-        <v>-18.074999999999999</v>
-      </c>
-      <c r="J29" s="2">
-        <v>1</v>
-      </c>
-      <c r="K29" s="2">
-        <v>6</v>
-      </c>
-      <c r="L29" s="2">
-        <v>1662777000</v>
-      </c>
-      <c r="M29" s="2">
-        <v>0</v>
-      </c>
-      <c r="N29" s="2">
-        <v>0</v>
-      </c>
-      <c r="O29" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+        <v>99999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>97</v>
       </c>
@@ -1869,37 +1248,16 @@
         <v>1</v>
       </c>
       <c r="F30" s="2">
-        <v>10846</v>
+        <v>1</v>
       </c>
       <c r="G30" s="2">
-        <v>-16361</v>
+        <v>19</v>
       </c>
       <c r="H30" s="2">
-        <v>10.846</v>
-      </c>
-      <c r="I30" s="2">
-        <v>-16.361000000000001</v>
-      </c>
-      <c r="J30" s="2">
-        <v>1</v>
-      </c>
-      <c r="K30" s="2">
-        <v>19</v>
-      </c>
-      <c r="L30" s="2">
-        <v>1662778800</v>
-      </c>
-      <c r="M30" s="2">
-        <v>0</v>
-      </c>
-      <c r="N30" s="2">
-        <v>0</v>
-      </c>
-      <c r="O30" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>99</v>
       </c>
@@ -1916,37 +1274,16 @@
         <v>1</v>
       </c>
       <c r="F31" s="2">
-        <v>5758</v>
+        <v>1</v>
       </c>
       <c r="G31" s="2">
-        <v>-3428</v>
+        <v>3</v>
       </c>
       <c r="H31" s="2">
-        <v>5.758</v>
-      </c>
-      <c r="I31" s="2">
-        <v>-3.4279999999999999</v>
-      </c>
-      <c r="J31" s="2">
-        <v>1</v>
-      </c>
-      <c r="K31" s="2">
-        <v>3</v>
-      </c>
-      <c r="L31" s="2">
-        <v>1662769800</v>
-      </c>
-      <c r="M31" s="2">
-        <v>0</v>
-      </c>
-      <c r="N31" s="2">
-        <v>0</v>
-      </c>
-      <c r="O31" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>107</v>
       </c>
@@ -1963,37 +1300,16 @@
         <v>1.5</v>
       </c>
       <c r="F32" s="2">
-        <v>-19640</v>
+        <v>0</v>
       </c>
       <c r="G32" s="2">
-        <v>-5538</v>
+        <v>99999999</v>
       </c>
       <c r="H32" s="2">
-        <v>-19.64</v>
-      </c>
-      <c r="I32" s="2">
-        <v>-5.5380000000000003</v>
-      </c>
-      <c r="J32" s="2">
-        <v>1</v>
-      </c>
-      <c r="K32" s="2">
-        <v>14</v>
-      </c>
-      <c r="L32" s="2">
-        <v>1662777000</v>
-      </c>
-      <c r="M32" s="2">
-        <v>0</v>
-      </c>
-      <c r="N32" s="2">
-        <v>0</v>
-      </c>
-      <c r="O32" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+        <v>99999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>110</v>
       </c>
@@ -2010,37 +1326,16 @@
         <v>1.5</v>
       </c>
       <c r="F33" s="2">
-        <v>9768</v>
+        <v>1</v>
       </c>
       <c r="G33" s="2">
-        <v>-26392</v>
+        <v>16</v>
       </c>
       <c r="H33" s="2">
-        <v>9.7680000000000007</v>
-      </c>
-      <c r="I33" s="2">
-        <v>-26.391999999999999</v>
-      </c>
-      <c r="J33" s="2">
-        <v>1</v>
-      </c>
-      <c r="K33" s="2">
-        <v>16</v>
-      </c>
-      <c r="L33" s="2">
-        <v>1662769800</v>
-      </c>
-      <c r="M33" s="2">
-        <v>0</v>
-      </c>
-      <c r="N33" s="2">
-        <v>0</v>
-      </c>
-      <c r="O33" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>119</v>
       </c>
@@ -2057,37 +1352,16 @@
         <v>2</v>
       </c>
       <c r="F34" s="2">
-        <v>16287</v>
+        <v>1</v>
       </c>
       <c r="G34" s="2">
-        <v>1172</v>
+        <v>15</v>
       </c>
       <c r="H34" s="2">
-        <v>16.286999999999999</v>
-      </c>
-      <c r="I34" s="2">
-        <v>1.1719999999999999</v>
-      </c>
-      <c r="J34" s="2">
-        <v>1</v>
-      </c>
-      <c r="K34" s="2">
-        <v>15</v>
-      </c>
-      <c r="L34" s="2">
-        <v>1662769800</v>
-      </c>
-      <c r="M34" s="2">
-        <v>0</v>
-      </c>
-      <c r="N34" s="2">
-        <v>0</v>
-      </c>
-      <c r="O34" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>122</v>
       </c>
@@ -2104,37 +1378,16 @@
         <v>1.5</v>
       </c>
       <c r="F35" s="2">
-        <v>3387</v>
+        <v>1</v>
       </c>
       <c r="G35" s="2">
-        <v>-36155</v>
+        <v>0</v>
       </c>
       <c r="H35" s="2">
-        <v>3.387</v>
-      </c>
-      <c r="I35" s="2">
-        <v>-36.155000000000001</v>
-      </c>
-      <c r="J35" s="2">
-        <v>1</v>
-      </c>
-      <c r="K35" s="2">
-        <v>0</v>
-      </c>
-      <c r="L35" s="2">
-        <v>1662769800</v>
-      </c>
-      <c r="M35" s="2">
-        <v>0</v>
-      </c>
-      <c r="N35" s="2">
-        <v>0</v>
-      </c>
-      <c r="O35" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>123</v>
       </c>
@@ -2151,37 +1404,16 @@
         <v>1.5</v>
       </c>
       <c r="F36" s="2">
-        <v>-3627</v>
+        <v>1</v>
       </c>
       <c r="G36" s="2">
-        <v>-10088</v>
+        <v>1</v>
       </c>
       <c r="H36" s="2">
-        <v>-3.6269999999999998</v>
-      </c>
-      <c r="I36" s="2">
-        <v>-10.087999999999999</v>
-      </c>
-      <c r="J36" s="2">
-        <v>1</v>
-      </c>
-      <c r="K36" s="2">
-        <v>5</v>
-      </c>
-      <c r="L36" s="2">
-        <v>1662777000</v>
-      </c>
-      <c r="M36" s="2">
-        <v>0</v>
-      </c>
-      <c r="N36" s="2">
-        <v>0</v>
-      </c>
-      <c r="O36" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>124</v>
       </c>
@@ -2198,37 +1430,16 @@
         <v>1.5</v>
       </c>
       <c r="F37" s="2">
-        <v>9789</v>
+        <v>0</v>
       </c>
       <c r="G37" s="2">
-        <v>-21245</v>
+        <v>99999999</v>
       </c>
       <c r="H37" s="2">
-        <v>9.7889999999999997</v>
-      </c>
-      <c r="I37" s="2">
-        <v>-21.245000000000001</v>
-      </c>
-      <c r="J37" s="2">
-        <v>1</v>
-      </c>
-      <c r="K37" s="2">
-        <v>19</v>
-      </c>
-      <c r="L37" s="2">
-        <v>1662784200</v>
-      </c>
-      <c r="M37" s="2">
-        <v>0</v>
-      </c>
-      <c r="N37" s="2">
-        <v>0</v>
-      </c>
-      <c r="O37" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+        <v>99999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>130</v>
       </c>
@@ -2245,37 +1456,16 @@
         <v>1.5</v>
       </c>
       <c r="F38" s="2">
-        <v>6761</v>
+        <v>1</v>
       </c>
       <c r="G38" s="2">
-        <v>-18920</v>
+        <v>17</v>
       </c>
       <c r="H38" s="2">
-        <v>6.7610000000000001</v>
-      </c>
-      <c r="I38" s="2">
-        <v>-18.920000000000002</v>
-      </c>
-      <c r="J38" s="2">
-        <v>1</v>
-      </c>
-      <c r="K38" s="2">
-        <v>17</v>
-      </c>
-      <c r="L38" s="2">
-        <v>1662769800</v>
-      </c>
-      <c r="M38" s="2">
-        <v>0</v>
-      </c>
-      <c r="N38" s="2">
-        <v>0</v>
-      </c>
-      <c r="O38" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>134</v>
       </c>
@@ -2292,37 +1482,16 @@
         <v>2</v>
       </c>
       <c r="F39" s="2">
-        <v>10717</v>
+        <v>0</v>
       </c>
       <c r="G39" s="2">
-        <v>-22256</v>
+        <v>99999999</v>
       </c>
       <c r="H39" s="2">
-        <v>10.717000000000001</v>
-      </c>
-      <c r="I39" s="2">
-        <v>-22.256</v>
-      </c>
-      <c r="J39" s="2">
-        <v>1</v>
-      </c>
-      <c r="K39" s="2">
-        <v>16</v>
-      </c>
-      <c r="L39" s="2">
-        <v>1662777000</v>
-      </c>
-      <c r="M39" s="2">
-        <v>0</v>
-      </c>
-      <c r="N39" s="2">
-        <v>0</v>
-      </c>
-      <c r="O39" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+        <v>99999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>135</v>
       </c>
@@ -2339,37 +1508,16 @@
         <v>1</v>
       </c>
       <c r="F40" s="2">
-        <v>396</v>
+        <v>0</v>
       </c>
       <c r="G40" s="2">
-        <v>-15905</v>
+        <v>99999999</v>
       </c>
       <c r="H40" s="2">
-        <v>0.39600000000000002</v>
-      </c>
-      <c r="I40" s="2">
-        <v>-15.904999999999999</v>
-      </c>
-      <c r="J40" s="2">
-        <v>1</v>
-      </c>
-      <c r="K40" s="2">
-        <v>2</v>
-      </c>
-      <c r="L40" s="2">
-        <v>1662780600</v>
-      </c>
-      <c r="M40" s="2">
-        <v>0</v>
-      </c>
-      <c r="N40" s="2">
-        <v>0</v>
-      </c>
-      <c r="O40" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+        <v>99999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>138</v>
       </c>
@@ -2386,37 +1534,16 @@
         <v>1</v>
       </c>
       <c r="F41" s="2">
-        <v>5133</v>
+        <v>1</v>
       </c>
       <c r="G41" s="2">
-        <v>-3723</v>
+        <v>1</v>
       </c>
       <c r="H41" s="2">
-        <v>5.133</v>
-      </c>
-      <c r="I41" s="2">
-        <v>-3.7229999999999999</v>
-      </c>
-      <c r="J41" s="2">
-        <v>1</v>
-      </c>
-      <c r="K41" s="2">
-        <v>1</v>
-      </c>
-      <c r="L41" s="2">
-        <v>1662769800</v>
-      </c>
-      <c r="M41" s="2">
-        <v>0</v>
-      </c>
-      <c r="N41" s="2">
-        <v>0</v>
-      </c>
-      <c r="O41" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>145</v>
       </c>
@@ -2433,37 +1560,16 @@
         <v>1.5</v>
       </c>
       <c r="F42" s="2">
-        <v>-8408</v>
+        <v>1</v>
       </c>
       <c r="G42" s="2">
-        <v>9030</v>
+        <v>11</v>
       </c>
       <c r="H42" s="2">
-        <v>-8.4079999999999995</v>
-      </c>
-      <c r="I42" s="2">
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="J42" s="2">
-        <v>1</v>
-      </c>
-      <c r="K42" s="2">
-        <v>11</v>
-      </c>
-      <c r="L42" s="2">
-        <v>1662771600</v>
-      </c>
-      <c r="M42" s="2">
-        <v>0</v>
-      </c>
-      <c r="N42" s="2">
-        <v>0</v>
-      </c>
-      <c r="O42" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>146</v>
       </c>
@@ -2480,37 +1586,16 @@
         <v>1.5</v>
       </c>
       <c r="F43" s="2">
-        <v>-6502</v>
+        <v>1</v>
       </c>
       <c r="G43" s="2">
-        <v>-19514</v>
+        <v>6</v>
       </c>
       <c r="H43" s="2">
-        <v>-6.5019999999999998</v>
-      </c>
-      <c r="I43" s="2">
-        <v>-19.513999999999999</v>
-      </c>
-      <c r="J43" s="2">
-        <v>1</v>
-      </c>
-      <c r="K43" s="2">
-        <v>6</v>
-      </c>
-      <c r="L43" s="2">
-        <v>1662769800</v>
-      </c>
-      <c r="M43" s="2">
-        <v>0</v>
-      </c>
-      <c r="N43" s="2">
-        <v>0</v>
-      </c>
-      <c r="O43" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>147</v>
       </c>
@@ -2527,37 +1612,16 @@
         <v>1.5</v>
       </c>
       <c r="F44" s="2">
-        <v>-8684</v>
+        <v>1</v>
       </c>
       <c r="G44" s="2">
-        <v>-22768</v>
+        <v>10</v>
       </c>
       <c r="H44" s="2">
-        <v>-8.6839999999999993</v>
-      </c>
-      <c r="I44" s="2">
-        <v>-22.768000000000001</v>
-      </c>
-      <c r="J44" s="2">
-        <v>1</v>
-      </c>
-      <c r="K44" s="2">
-        <v>10</v>
-      </c>
-      <c r="L44" s="2">
-        <v>1662775200</v>
-      </c>
-      <c r="M44" s="2">
-        <v>0</v>
-      </c>
-      <c r="N44" s="2">
-        <v>0</v>
-      </c>
-      <c r="O44" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>150</v>
       </c>
@@ -2574,37 +1638,16 @@
         <v>1.5</v>
       </c>
       <c r="F45" s="2">
-        <v>-6250</v>
+        <v>0</v>
       </c>
       <c r="G45" s="2">
-        <v>-12894</v>
+        <v>99999999</v>
       </c>
       <c r="H45" s="2">
-        <v>-6.25</v>
-      </c>
-      <c r="I45" s="2">
-        <v>-12.894</v>
-      </c>
-      <c r="J45" s="2">
-        <v>1</v>
-      </c>
-      <c r="K45" s="2">
-        <v>7</v>
-      </c>
-      <c r="L45" s="2">
-        <v>1662780600</v>
-      </c>
-      <c r="M45" s="2">
-        <v>0</v>
-      </c>
-      <c r="N45" s="2">
-        <v>0</v>
-      </c>
-      <c r="O45" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+        <v>99999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>153</v>
       </c>
@@ -2621,37 +1664,16 @@
         <v>2</v>
       </c>
       <c r="F46" s="2">
-        <v>2146</v>
+        <v>1</v>
       </c>
       <c r="G46" s="2">
-        <v>-3007</v>
+        <v>2</v>
       </c>
       <c r="H46" s="2">
-        <v>2.1459999999999999</v>
-      </c>
-      <c r="I46" s="2">
-        <v>-3.0070000000000001</v>
-      </c>
-      <c r="J46" s="2">
-        <v>1</v>
-      </c>
-      <c r="K46" s="2">
-        <v>2</v>
-      </c>
-      <c r="L46" s="2">
-        <v>1662769800</v>
-      </c>
-      <c r="M46" s="2">
-        <v>0</v>
-      </c>
-      <c r="N46" s="2">
-        <v>0</v>
-      </c>
-      <c r="O46" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>158</v>
       </c>
@@ -2668,37 +1690,16 @@
         <v>2</v>
       </c>
       <c r="F47" s="2">
-        <v>-2880</v>
+        <v>0</v>
       </c>
       <c r="G47" s="2">
-        <v>-39468</v>
+        <v>99999999</v>
       </c>
       <c r="H47" s="2">
-        <v>-2.88</v>
-      </c>
-      <c r="I47" s="2">
-        <v>-39.468000000000004</v>
-      </c>
-      <c r="J47" s="2">
-        <v>1</v>
-      </c>
-      <c r="K47" s="2">
-        <v>0</v>
-      </c>
-      <c r="L47" s="2">
-        <v>1662777000</v>
-      </c>
-      <c r="M47" s="2">
-        <v>0</v>
-      </c>
-      <c r="N47" s="2">
-        <v>0</v>
-      </c>
-      <c r="O47" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+        <v>99999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>163</v>
       </c>
@@ -2715,37 +1716,16 @@
         <v>1.5</v>
       </c>
       <c r="F48" s="2">
-        <v>10317</v>
+        <v>1</v>
       </c>
       <c r="G48" s="2">
-        <v>1701</v>
+        <v>13</v>
       </c>
       <c r="H48" s="2">
-        <v>10.317</v>
-      </c>
-      <c r="I48" s="2">
-        <v>1.7010000000000001</v>
-      </c>
-      <c r="J48" s="2">
-        <v>1</v>
-      </c>
-      <c r="K48" s="2">
-        <v>13</v>
-      </c>
-      <c r="L48" s="2">
-        <v>1662769800</v>
-      </c>
-      <c r="M48" s="2">
-        <v>0</v>
-      </c>
-      <c r="N48" s="2">
-        <v>0</v>
-      </c>
-      <c r="O48" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>168</v>
       </c>
@@ -2762,37 +1742,16 @@
         <v>2</v>
       </c>
       <c r="F49" s="2">
-        <v>-15064</v>
+        <v>0</v>
       </c>
       <c r="G49" s="2">
-        <v>5125</v>
+        <v>99999999</v>
       </c>
       <c r="H49" s="2">
-        <v>-15.064</v>
-      </c>
-      <c r="I49" s="2">
-        <v>5.125</v>
-      </c>
-      <c r="J49" s="2">
-        <v>1</v>
-      </c>
-      <c r="K49" s="2">
-        <v>12</v>
-      </c>
-      <c r="L49" s="2">
-        <v>1662780600</v>
-      </c>
-      <c r="M49" s="2">
-        <v>0</v>
-      </c>
-      <c r="N49" s="2">
-        <v>0</v>
-      </c>
-      <c r="O49" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+        <v>99999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>174</v>
       </c>
@@ -2809,37 +1768,16 @@
         <v>1.5</v>
       </c>
       <c r="F50" s="2">
-        <v>-7025</v>
+        <v>0</v>
       </c>
       <c r="G50" s="2">
-        <v>-2326</v>
+        <v>99999999</v>
       </c>
       <c r="H50" s="2">
-        <v>-7.0250000000000004</v>
-      </c>
-      <c r="I50" s="2">
-        <v>-2.3260000000000001</v>
-      </c>
-      <c r="J50" s="2">
-        <v>1</v>
-      </c>
-      <c r="K50" s="2">
-        <v>4</v>
-      </c>
-      <c r="L50" s="2">
-        <v>1662777000</v>
-      </c>
-      <c r="M50" s="2">
-        <v>0</v>
-      </c>
-      <c r="N50" s="2">
-        <v>0</v>
-      </c>
-      <c r="O50" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+        <v>99999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>178</v>
       </c>
@@ -2856,39 +1794,24 @@
         <v>1</v>
       </c>
       <c r="F51" s="2">
-        <v>-196</v>
+        <v>1</v>
       </c>
       <c r="G51" s="2">
-        <v>-22699</v>
+        <v>9</v>
       </c>
       <c r="H51" s="2">
-        <v>-0.19600000000000001</v>
-      </c>
-      <c r="I51" s="2">
-        <v>-22.699000000000002</v>
-      </c>
-      <c r="J51" s="2">
-        <v>1</v>
-      </c>
-      <c r="K51" s="2">
-        <v>10</v>
-      </c>
-      <c r="L51" s="2">
-        <v>1662784200</v>
-      </c>
-      <c r="M51" s="2">
-        <v>0</v>
-      </c>
-      <c r="N51" s="2">
-        <v>0</v>
-      </c>
-      <c r="O51" s="2">
-        <v>1</v>
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H51" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="99999999"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>